--- a/processed_chunks.xlsx
+++ b/processed_chunks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-22T16:33:33.211918</t>
+          <t>2025-02-23T19:53:59.387742</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sustainable Data Centers Article</t>
+          <t>Cybersecurity Evolution</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,14 +503,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Rise of Sustainable Data Centers: A Green Revolution in Computing
-The technology industry's push toward sustainability has transformed how data centers are designed and operated in the 21st century. As digital infrastructure continues to expand, companies are increasingly focusing on environmental responsibility while meeting the growing demands of modern computing workloads.
-Traditional data centers have long been known for their substantial environmental impact, particularly in terms of energy consumption and carbon emissions. However, recent years have witnessed a remarkable shift toward sustainable practices and innovative solutions that promise to reshape the industry's environmental footprint.
-One of the most significant developments in this space occurred in March 2023, when Microsoft successfully completed a three-month trial of an underwater data center off the coast of Scotland, demonstrating a remarkable 98% reliability rate in their underwater cooling system. This breakthrough project, known as Project Natick, showed that subsea data centers could operate with significantly reduced cooling costs and environmental impact compared to traditional land-based facilities.
-The drive toward sustainability has also led to innovative approaches in power sourcing and management. Companies are increasingly turning to renewable energy sources to power their data centers, with some achieving remarkable results. In September 2022, Amazon Web Services announced that their European data centers had reached an impressive milestone of 90% renewable energy usage across all their facilities in the region, marking a significant step toward their goal of 100% renewable energy by 2025.
-The industry's commitment to environmental responsibility extends beyond just power consumption. Modern data centers are incorporating advanced materials and design principles to minimize their environmental impact. From the use of recycled materials in construction to the implementation of smart building management systems, every aspect of data center design is being reconsidered through the lens of sustainability.
-Water conservation has become another crucial focus area for data center operators. Traditional cooling systems can consume millions of gallons of water annually, leading to increased pressure on local water resources. In response, many facilities are adopting innovative cooling technologies that significantly reduce water usage while maintaining optimal operating temperatures.
-The economic benefits of sustainable data centers are becoming increasingly apparent. While the initial investment in green technologies may be higher, the long-term operational cost savings and improved public perception make a compelling business case for sustainability. Companies are finding that environmental responsibility and profitability can go hand in hand.</t>
+          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
+In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
+The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
+Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
+The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
+Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
+The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -518,7 +517,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>processed</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -528,19 +527,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{'char_length': 2883, 'timestamp': '2025-02-22T16:33:33.211918'}</t>
+          <t>{'char_length': 2885, 'timestamp': '2025-02-23T19:53:59.387742'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-22T16:33:39.651696</t>
+          <t>2025-02-23T19:53:59.399694</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sustainable Data Centers Article</t>
+          <t>Cybersecurity Evolution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -550,9 +549,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Looking ahead, the industry continues to explore new frontiers in sustainable data center technology. Research into advanced cooling methods, more efficient power distribution systems, and innovative building materials suggests that the next generation of data centers will be even more environmentally friendly while delivering enhanced performance.
-The impact of these developments extends beyond the technology sector. As data centers become more sustainable, they set new standards for industrial facilities across all sectors. The lessons learned and technologies developed in the pursuit of green data centers are helping to drive broader sustainability initiatives across the global economy.
-As we move forward, the continued evolution of sustainable data center practices will play a crucial role in addressing the environmental challenges of the digital age. The innovations and achievements we see today are just the beginning of a longer journey toward truly sustainable digital infrastructure.</t>
+          <t>The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.
+Supply chain security has become a critical focus area as organizations recognize the vulnerabilities inherent in their extended networks of partners and suppliers. The interconnected nature of modern business operations means that a security breach in one part of the supply chain can have cascading effects throughout the entire network. This realization has led to more rigorous vendor assessment processes and the implementation of new standards for supply chain security.
+The rise of Internet of Things (IoT) devices has dramatically expanded the attack surface that organizations must defend. These devices, often designed with functionality rather than security as a primary consideration, introduce new vulnerabilities into networks. The challenge of securing vast networks of IoT devices while maintaining their utility has driven innovation in network segmentation and device management strategies.
+Incident response and recovery capabilities have become as crucial as preventive measures in modern cybersecurity strategies. Organizations increasingly recognize that despite best efforts at prevention, breaches may occur. The ability to detect, respond to, and recover from security incidents quickly and effectively has become a critical measure of security program maturity.
+The financial implications of cybersecurity have evolved beyond simple cost-center considerations. Organizations must now view cybersecurity investment through the lens of risk management and business enablement. The cost of security failures, both in terms of direct financial impact and reputational damage, has made cybersecurity a board-level concern and a strategic business imperative.
+Privacy considerations have become inextricably linked with cybersecurity as organizations grapple with increasing requirements for data protection and user privacy. The challenge of maintaining robust security while respecting user privacy rights has led to innovations in privacy-preserving security technologies and practices.
+The skills gap in cybersecurity continues to present challenges for organizations seeking to build and maintain effective security programs. The rapidly evolving nature of threats and technologies requires continuous learning and adaptation from security professionals. Organizations must develop strategies for attracting, retaining, and developing security talent in an increasingly competitive market.
+Cloud security has evolved into a distinct discipline as organizations continue to migrate critical systems and data to cloud environments. The shared responsibility model of cloud security requires new approaches to security architecture and management. Organizations must carefully balance the benefits of cloud adoption with the need to maintain security control and visibility.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -560,17 +564,308 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'char_length': 1007, 'timestamp': '2025-02-22T16:33:39.651696'}</t>
+          <t>{'char_length': 3215, 'timestamp': '2025-02-23T19:53:59.399694'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-02-23T19:53:59.408998</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cybersecurity Evolution</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>synthetic_data.py</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cloud security has evolved into a distinct discipline as organizations continue to migrate critical systems and data to cloud environments. The shared responsibility model of cloud security requires new approaches to security architecture and management. Organizations must carefully balance the benefits of cloud adoption with the need to maintain security control and visibility.
+Mobile device security has become increasingly critical as the boundaries between personal and professional device use continue to blur. Organizations must develop strategies for securing mobile devices and data while maintaining user productivity and satisfaction. This challenge has driven innovations in mobile device management and security technologies.
+The future of cybersecurity will likely be shaped by emerging technologies such as quantum computing and advanced AI systems. These technologies promise to both strengthen security capabilities and introduce new vulnerabilities that must be addressed. Organizations must remain vigilant and adaptable, ready to evolve their security strategies as new threats and technologies emerge.
+Looking ahead, the cybersecurity landscape will continue to evolve as new technologies emerge and threat actors develop increasingly sophisticated attack methods. Organizations must maintain a proactive stance, continuously adapting their security strategies to address new challenges while maintaining the agility needed to operate in a digital world.</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'char_length': 1480, 'timestamp': '2025-02-23T19:53:59.408998'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-02-23T20:03:04.187592</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SYNTHETIC_ARTICLE_5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
+In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
+The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
+Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
+The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
+Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
+The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{'char_length': 2885, 'timestamp': '2025-02-23T20:03:04.187592'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-23T20:03:04.264126</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SYNTHETIC_ARTICLE_5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.
+Supply chain security has become a critical focus area as organizations recognize the vulnerabilities inherent in their extended networks of partners and suppliers. The interconnected nature of modern business operations means that a security breach in one part of the supply chain can have cascading effects throughout the entire network. This realization has led to more rigorous vendor assessment processes and the implementation of new standards for supply chain security.
+The rise of Internet of Things (IoT) devices has dramatically expanded the attack surface that organizations must defend. These devices, often designed with functionality rather than security as a primary consideration, introduce new vulnerabilities into networks. The challenge of securing vast networks of IoT devices while maintaining their utility has driven innovation in network segmentation and device management strategies.
+Incident response and recovery capabilities have become as crucial as preventive measures in modern cybersecurity strategies. Organizations increasingly recognize that despite best efforts at prevention, breaches may occur. The ability to detect, respond to, and recover from security incidents quickly and effectively has become a critical measure of security program maturity.
+The financial implications of cybersecurity have evolved beyond simple cost-center considerations. Organizations must now view cybersecurity investment through the lens of risk management and business enablement. The cost of security failures, both in terms of direct financial impact and reputational damage, has made cybersecurity a board-level concern and a strategic business imperative.
+Privacy considerations have become inextricably linked with cybersecurity as organizations grapple with increasing requirements for data protection and user privacy. The challenge of maintaining robust security while respecting user privacy rights has led to innovations in privacy-preserving security technologies and practices.
+The skills gap in cybersecurity continues to present challenges for organizations seeking to build and maintain effective security programs. The rapidly evolving nature of threats and technologies requires continuous learning and adaptation from security professionals. Organizations must develop strategies for attracting, retaining, and developing security talent in an increasingly competitive market.
+Cloud security has evolved into a distinct discipline as organizations continue to migrate critical systems and data to cloud environments. The shared responsibility model of cloud security requires new approaches to security architecture and management. Organizations must carefully balance the benefits of cloud adoption with the need to maintain security control and visibility.</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{'char_length': 3215, 'timestamp': '2025-02-23T20:03:04.264126'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-23T20:03:04.273883</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SYNTHETIC_ARTICLE_5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cloud security has evolved into a distinct discipline as organizations continue to migrate critical systems and data to cloud environments. The shared responsibility model of cloud security requires new approaches to security architecture and management. Organizations must carefully balance the benefits of cloud adoption with the need to maintain security control and visibility.
+Mobile device security has become increasingly critical as the boundaries between personal and professional device use continue to blur. Organizations must develop strategies for securing mobile devices and data while maintaining user productivity and satisfaction. This challenge has driven innovations in mobile device management and security technologies.
+The future of cybersecurity will likely be shaped by emerging technologies such as quantum computing and advanced AI systems. These technologies promise to both strengthen security capabilities and introduce new vulnerabilities that must be addressed. Organizations must remain vigilant and adaptable, ready to evolve their security strategies as new threats and technologies emerge.
+Looking ahead, the cybersecurity landscape will continue to evolve as new technologies emerge and threat actors develop increasingly sophisticated attack methods. Organizations must maintain a proactive stance, continuously adapting their security strategies to address new challenges while maintaining the agility needed to operate in a digital world.</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{'char_length': 1480, 'timestamp': '2025-02-23T20:03:04.273883'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-23T20:04:05.797970</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SYNTHETIC_ARTICLE_6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>The Future of Semiconductor Manufacturing: Innovation at the Atomic Scale
+The semiconductor industry stands at the forefront of technological innovation, pushing the boundaries of what's possible in electronic device manufacturing. The relentless pursuit of Moore's Law has driven unprecedented advances in manufacturing processes, enabling the creation of increasingly powerful and efficient electronic devices. This journey of innovation continues to reshape the landscape of modern technology.
+The fundamental challenges of semiconductor manufacturing have grown exponentially as device dimensions approach atomic scales. The physics of semiconductor fabrication at these scales presents unique challenges that require revolutionary approaches to manufacturing. Engineers and scientists must contend with quantum effects and atomic-level precision in ways that were unimaginable just a few decades ago.
+In a groundbreaking achievement announced in March 2024, TSMC successfully demonstrated the world's first 1-nanometer process node, achieving a transistor density of 400 million transistors per square millimeter while maintaining a power efficiency of 0.2 watts per million transistors. This development marks a significant milestone in the industry's pursuit of continued scaling in semiconductor manufacturing.
+The evolution of lithography technology has been crucial to enabling continued advancement in semiconductor manufacturing. The industry's adoption of extreme ultraviolet (EUV) lithography represented a fundamental shift in how circuits are patterned onto silicon wafers. This technology continues to evolve, with researchers exploring new techniques for achieving even finer feature sizes and better pattern fidelity.
+Materials science plays an increasingly critical role in semiconductor manufacturing innovation. The introduction of new materials and atomic-layer deposition techniques has enabled continued improvements in device performance and efficiency. Researchers continue to explore novel materials and compositions that could enable the next generation of semiconductor devices.
+The economic implications of advanced semiconductor manufacturing are profound. The cost of building and equipping a leading-edge semiconductor fabrication facility has grown exponentially, leading to new models of collaboration and investment in the industry. This economic reality has reshaped the competitive landscape and driven new approaches to funding and operating semiconductor manufacturing facilities.
+Quality control and yield management have become increasingly sophisticated as manufacturing processes become more complex. Advanced inspection and metrology systems, powered by artificial intelligence and machine learning, enable the detection and correction of defects at scales that were previously impossible to monitor. These capabilities are crucial for maintaining economically viable production yields at advanced technology nodes.</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>processed</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>{'char_length': 2968, 'timestamp': '2025-02-23T20:04:05.797970'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-02-23T20:04:05.870576</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SYNTHETIC_ARTICLE_6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Quality control and yield management have become increasingly sophisticated as manufacturing processes become more complex. Advanced inspection and metrology systems, powered by artificial intelligence and machine learning, enable the detection and correction of defects at scales that were previously impossible to monitor. These capabilities are crucial for maintaining economically viable production yields at advanced technology nodes.
+The environmental impact of semiconductor manufacturing has become a critical consideration as the industry continues to grow. Water usage, energy consumption, and chemical waste management present significant challenges that must be addressed. The industry has responded with innovations in resource recovery and recycling, as well as the development of more environmentally sustainable manufacturing processes.
+Supply chain resilience has emerged as a crucial factor in semiconductor manufacturing strategy. The global nature of the semiconductor supply chain, combined with increasing geopolitical tensions and natural disasters, has highlighted the importance of developing more robust and diversified supply networks. This has led to new investments in manufacturing capacity across different regions and the development of more resilient supply chain models.
+The role of artificial intelligence in semiconductor manufacturing continues to expand. AI systems are being deployed throughout the manufacturing process, from design and simulation to process control and quality assurance. These systems enable more efficient operations and help maintain the precise control required for advanced semiconductor manufacturing.
+The development of new packaging technologies has become as crucial as advances in semiconductor manufacturing processes. Advanced packaging techniques, including 2.5D and 3D integration, enable new approaches to system design and performance optimization. These innovations are crucial for continuing to advance overall system capabilities as traditional scaling becomes more challenging.
+The workforce requirements for semiconductor manufacturing have evolved significantly. The increasing complexity of manufacturing processes requires a highly skilled workforce with expertise in multiple disciplines. Industry leaders are investing in education and training programs to develop the talent needed to operate and advance these sophisticated manufacturing operations.
+Research and development in semiconductor manufacturing continues to push the boundaries of what's possible. Scientists and engineers are exploring new approaches to computation and memory, including novel device architectures and materials. These research efforts could lead to revolutionary changes in how semiconductor devices are manufactured and used.
+The standardization of advanced manufacturing processes presents ongoing challenges. As new technologies and processes are developed, the industry must work to establish standards that enable interoperability and efficiency while maintaining the flexibility needed for innovation. This balance between standardization and innovation remains a crucial consideration in the industry's development.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{'char_length': 3195, 'timestamp': '2025-02-23T20:04:05.870576'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-23T20:04:05.881014</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SYNTHETIC_ARTICLE_6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>The standardization of advanced manufacturing processes presents ongoing challenges. As new technologies and processes are developed, the industry must work to establish standards that enable interoperability and efficiency while maintaining the flexibility needed for innovation. This balance between standardization and innovation remains a crucial consideration in the industry's development.
+Looking toward the future, the semiconductor manufacturing industry faces both challenges and opportunities. The continued pursuit of Moore's Law will require new approaches to device scaling and manufacturing. The industry must balance the technical challenges of advancing semiconductor technology with economic and environmental considerations.
+The impact of semiconductor manufacturing advances extends far beyond the technology sector. These innovations enable advances in fields ranging from healthcare to renewable energy, making semiconductor manufacturing a crucial driver of broader technological and social progress. The industry's ability to continue pushing the boundaries of what's possible will play a vital role in shaping the future of technology and society.</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{'char_length': 1174, 'timestamp': '2025-02-23T20:04:05.881014'}</t>
         </is>
       </c>
     </row>

--- a/processed_chunks.xlsx
+++ b/processed_chunks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,276 +488,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-23T19:53:59.387742</t>
+          <t>2025-02-23T20:08:51.944499</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cybersecurity Evolution</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
+          <t>SYNTHETIC_ARTICLE_6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
-In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
-The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
-Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
-The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
-Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
-The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>processed</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>{'char_length': 2885, 'timestamp': '2025-02-23T19:53:59.387742'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-02-23T19:53:59.399694</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cybersecurity Evolution</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.
-Supply chain security has become a critical focus area as organizations recognize the vulnerabilities inherent in their extended networks of partners and suppliers. The interconnected nature of modern business operations means that a security breach in one part of the supply chain can have cascading effects throughout the entire network. This realization has led to more rigorous vendor assessment processes and the implementation of new standards for supply chain security.
-The rise of Internet of Things (IoT) devices has dramatically expanded the attack surface that organizations must defend. These devices, often designed with functionality rather than security as a primary consideration, introduce new vulnerabilities into networks. The challenge of securing vast networks of IoT devices while maintaining their utility has driven innovation in network segmentation and device management strategies.
-Incident response and recovery capabilities have become as crucial as preventive measures in modern cybersecurity strategies. Organizations increasingly recognize that despite best efforts at prevention, breaches may occur. The ability to detect, respond to, and recover from security incidents quickly and effectively has become a critical measure of security program maturity.
-The financial implications of cybersecurity have evolved beyond simple cost-center considerations. Organizations must now view cybersecurity investment through the lens of risk management and business enablement. The cost of security failures, both in terms of direct financial impact and reputational damage, has made cybersecurity a board-level concern and a strategic business imperative.
-Privacy considerations have become inextricably linked with cybersecurity as organizations grapple with increasing requirements for data protection and user privacy. The challenge of maintaining robust security while respecting user privacy rights has led to innovations in privacy-preserving security technologies and practices.
-The skills gap in cybersecurity continues to present challenges for organizations seeking to build and maintain effective security programs. The rapidly evolving nature of threats and technologies requires continuous learning and adaptation from security professionals. Organizations must develop strategies for attracting, retaining, and developing security talent in an increasingly competitive market.
-Cloud security has evolved into a distinct discipline as organizations continue to migrate critical systems and data to cloud environments. The shared responsibility model of cloud security requires new approaches to security architecture and management. Organizations must carefully balance the benefits of cloud adoption with the need to maintain security control and visibility.</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>{'char_length': 3215, 'timestamp': '2025-02-23T19:53:59.399694'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-02-23T19:53:59.408998</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cybersecurity Evolution</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cloud security has evolved into a distinct discipline as organizations continue to migrate critical systems and data to cloud environments. The shared responsibility model of cloud security requires new approaches to security architecture and management. Organizations must carefully balance the benefits of cloud adoption with the need to maintain security control and visibility.
-Mobile device security has become increasingly critical as the boundaries between personal and professional device use continue to blur. Organizations must develop strategies for securing mobile devices and data while maintaining user productivity and satisfaction. This challenge has driven innovations in mobile device management and security technologies.
-The future of cybersecurity will likely be shaped by emerging technologies such as quantum computing and advanced AI systems. These technologies promise to both strengthen security capabilities and introduce new vulnerabilities that must be addressed. Organizations must remain vigilant and adaptable, ready to evolve their security strategies as new threats and technologies emerge.
-Looking ahead, the cybersecurity landscape will continue to evolve as new technologies emerge and threat actors develop increasingly sophisticated attack methods. Organizations must maintain a proactive stance, continuously adapting their security strategies to address new challenges while maintaining the agility needed to operate in a digital world.</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>{'char_length': 1480, 'timestamp': '2025-02-23T19:53:59.408998'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-02-23T20:03:04.187592</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SYNTHETIC_ARTICLE_5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
-In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
-The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
-Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
-The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
-Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
-The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>{'char_length': 2885, 'timestamp': '2025-02-23T20:03:04.187592'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-02-23T20:03:04.264126</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SYNTHETIC_ARTICLE_5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.
-Supply chain security has become a critical focus area as organizations recognize the vulnerabilities inherent in their extended networks of partners and suppliers. The interconnected nature of modern business operations means that a security breach in one part of the supply chain can have cascading effects throughout the entire network. This realization has led to more rigorous vendor assessment processes and the implementation of new standards for supply chain security.
-The rise of Internet of Things (IoT) devices has dramatically expanded the attack surface that organizations must defend. These devices, often designed with functionality rather than security as a primary consideration, introduce new vulnerabilities into networks. The challenge of securing vast networks of IoT devices while maintaining their utility has driven innovation in network segmentation and device management strategies.
-Incident response and recovery capabilities have become as crucial as preventive measures in modern cybersecurity strategies. Organizations increasingly recognize that despite best efforts at prevention, breaches may occur. The ability to detect, respond to, and recover from security incidents quickly and effectively has become a critical measure of security program maturity.
-The financial implications of cybersecurity have evolved beyond simple cost-center considerations. Organizations must now view cybersecurity investment through the lens of risk management and business enablement. The cost of security failures, both in terms of direct financial impact and reputational damage, has made cybersecurity a board-level concern and a strategic business imperative.
-Privacy considerations have become inextricably linked with cybersecurity as organizations grapple with increasing requirements for data protection and user privacy. The challenge of maintaining robust security while respecting user privacy rights has led to innovations in privacy-preserving security technologies and practices.
-The skills gap in cybersecurity continues to present challenges for organizations seeking to build and maintain effective security programs. The rapidly evolving nature of threats and technologies requires continuous learning and adaptation from security professionals. Organizations must develop strategies for attracting, retaining, and developing security talent in an increasingly competitive market.
-Cloud security has evolved into a distinct discipline as organizations continue to migrate critical systems and data to cloud environments. The shared responsibility model of cloud security requires new approaches to security architecture and management. Organizations must carefully balance the benefits of cloud adoption with the need to maintain security control and visibility.</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>{'char_length': 3215, 'timestamp': '2025-02-23T20:03:04.264126'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-02-23T20:03:04.273883</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SYNTHETIC_ARTICLE_5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Cloud security has evolved into a distinct discipline as organizations continue to migrate critical systems and data to cloud environments. The shared responsibility model of cloud security requires new approaches to security architecture and management. Organizations must carefully balance the benefits of cloud adoption with the need to maintain security control and visibility.
-Mobile device security has become increasingly critical as the boundaries between personal and professional device use continue to blur. Organizations must develop strategies for securing mobile devices and data while maintaining user productivity and satisfaction. This challenge has driven innovations in mobile device management and security technologies.
-The future of cybersecurity will likely be shaped by emerging technologies such as quantum computing and advanced AI systems. These technologies promise to both strengthen security capabilities and introduce new vulnerabilities that must be addressed. Organizations must remain vigilant and adaptable, ready to evolve their security strategies as new threats and technologies emerge.
-Looking ahead, the cybersecurity landscape will continue to evolve as new technologies emerge and threat actors develop increasingly sophisticated attack methods. Organizations must maintain a proactive stance, continuously adapting their security strategies to address new challenges while maintaining the agility needed to operate in a digital world.</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>{'char_length': 1480, 'timestamp': '2025-02-23T20:03:04.273883'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-02-23T20:04:05.797970</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SYNTHETIC_ARTICLE_6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
         <is>
           <t>The Future of Semiconductor Manufacturing: Innovation at the Atomic Scale
 The semiconductor industry stands at the forefront of technological innovation, pushing the boundaries of what's possible in electronic device manufacturing. The relentless pursuit of Moore's Law has driven unprecedented advances in manufacturing processes, enabling the creation of increasingly powerful and efficient electronic devices. This journey of innovation continues to reshape the landscape of modern technology.
@@ -769,38 +509,38 @@
 Quality control and yield management have become increasingly sophisticated as manufacturing processes become more complex. Advanced inspection and metrology systems, powered by artificial intelligence and machine learning, enable the detection and correction of defects at scales that were previously impossible to monitor. These capabilities are crucial for maintaining economically viable production yields at advanced technology nodes.</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>processed</t>
         </is>
       </c>
-      <c r="G8" t="b">
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>{'char_length': 2968, 'timestamp': '2025-02-23T20:04:05.797970'}</t>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{'char_length': 2968, 'timestamp': '2025-02-23T20:08:51.944499'}</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-02-23T20:04:05.870576</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-02-23T20:08:51.956139</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>SYNTHETIC_ARTICLE_6</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Quality control and yield management have become increasingly sophisticated as manufacturing processes become more complex. Advanced inspection and metrology systems, powered by artificial intelligence and machine learning, enable the detection and correction of defects at scales that were previously impossible to monitor. These capabilities are crucial for maintaining economically viable production yields at advanced technology nodes.
 The environmental impact of semiconductor manufacturing has become a critical consideration as the industry continues to grow. Water usage, energy consumption, and chemical waste management present significant challenges that must be addressed. The industry has responded with innovations in resource recovery and recycling, as well as the development of more environmentally sustainable manufacturing processes.
@@ -812,60 +552,60 @@
 The standardization of advanced manufacturing processes presents ongoing challenges. As new technologies and processes are developed, the industry must work to establish standards that enable interoperability and efficiency while maintaining the flexibility needed for innovation. This balance between standardization and innovation remains a crucial consideration in the industry's development.</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="G9" t="b">
+      <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>{'char_length': 3195, 'timestamp': '2025-02-23T20:04:05.870576'}</t>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{'char_length': 3195, 'timestamp': '2025-02-23T20:08:51.956139'}</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-02-23T20:04:05.881014</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-02-23T20:08:51.967912</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>SYNTHETIC_ARTICLE_6</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>The standardization of advanced manufacturing processes presents ongoing challenges. As new technologies and processes are developed, the industry must work to establish standards that enable interoperability and efficiency while maintaining the flexibility needed for innovation. This balance between standardization and innovation remains a crucial consideration in the industry's development.
 Looking toward the future, the semiconductor manufacturing industry faces both challenges and opportunities. The continued pursuit of Moore's Law will require new approaches to device scaling and manufacturing. The industry must balance the technical challenges of advancing semiconductor technology with economic and environmental considerations.
 The impact of semiconductor manufacturing advances extends far beyond the technology sector. These innovations enable advances in fields ranging from healthcare to renewable energy, making semiconductor manufacturing a crucial driver of broader technological and social progress. The industry's ability to continue pushing the boundaries of what's possible will play a vital role in shaping the future of technology and society.</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="G10" t="b">
+      <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>{'char_length': 1174, 'timestamp': '2025-02-23T20:04:05.881014'}</t>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'char_length': 1174, 'timestamp': '2025-02-23T20:08:51.967912'}</t>
         </is>
       </c>
     </row>

--- a/processed_chunks.xlsx
+++ b/processed_chunks.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,189 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:08:55.555905</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NICHOLAS PATE 
+329 E 63rd, #3A | New York, NY 10065 
+Tel: 512-966-4317 | E-mail: nicholas.pate1320@gmail.com 
+EXPERIENCE 
+Dell Technologies 
+Corporate Strategy Consultant 
+New York, NY 
+Nov 2021 – Present 
+• Led AI strategy projects, scoping and structuring complex questions and executing hypotheses-driven frameworks 
+• Synthesized insights into internal and external collateral; delivered strategic recommendations to senior leadership 
+• Conducted primary market research and developed data-driven insights to inform AI growth strategies 
+• Developed and led AI training initiatives, including upskilling and thought leadership for Corporate Strategy team 
+• Delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives to aid in annual planning 
+• Built relationships and collaborated effectively with colleagues at all levels to create and drive adoption of AI strategies 
+L.E.K. Consulting 
+Consultant 
+Summer Consultant 
+New York, NY 
+Jan 2021 – Oct 2021  
+Summer 2019 
+• Led and managed teams of 2-3 associates in the execution of commercial and vendor due diligence projects, providing 
+valuable insights for buy-side and sell-side transactions 
+• Developed and implemented hypothesis-led frameworks to provide comprehensive market dynamics insights, 
+including growth drivers, competitive landscapes, customer segmentation, unmet needs, and key purchasing criteria 
+• Conducted primary market research through the development of consumer surveys and interview guides, providing 
+data-driven insights to inform growth strategies 
+• Developed market size models to determine current market size and forecasted growth, aiding in strategic decision-
+making for clients across various industries 
+Grant Thornton LLP 
+Senior Associate Consultant – Strategy and Performance Improvement  
+Associate Consultant – Business Consulting (Dallas, TX) 
+New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>processed</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{'char_length': 2286, 'timestamp': '2025-02-24T00:08:55.555905'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:09:25.024404</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients 
+• Developed and presented quantitative business cases, influencing key decision-making processes for clients 
+EDUCATION 
+NEW YORK UNIVERSITY, Leonard N. Stern School of Business 
+Master of Business Administration 
+Specializations in Strategy, Business Analytics, and Management 
+New York, NY 
+May 2020 
+• Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club 
+• Member - Stern Technology Association; Management Consulting Association 
+• Teaching Fellow - Digital Strategy; Programming in Python 
+SOUTHWESTERN UNIVERSITY 
+Bachelor of Arts in Business and Economics 
+Georgetown, TX 
+ May 2013 
+• Dean’s List 
+ADDITIONAL INFORMATION 
+• Skills: Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, 
+Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management 
+• Certifications: OpenAI API Bootcamp - Udemy; Intermediate Python for Data Science – DataCamp 
+• Volunteering: Mentor for 15+ middle school, high school, and first-generation college students over 5 different 
+organizations since 2014, providing educational, professional, and personal guidance 
+• Interests: Competitive bowler with ten 300 games, avid musician (singing, piano, and guitar), and coffee roaster</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>processed</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{'char_length': 1729, 'timestamp': '2025-02-24T00:09:25.024404'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-24T13:46:20.032800</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.docx</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NICHOLAS PATE
+329 E 63rd, #3A | New York, NY 10065
+Tel: 512-966-4317 | E-mail: nicholas.pate1320@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{'char_length': 106, 'timestamp': '2025-02-24T13:46:20.032800'}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/processed_chunks.xlsx
+++ b/processed_chunks.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,374 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>document_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>source_url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>chunk_content</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>chunk_index</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contains_facts</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_message</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>processing_time</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>metadata</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-02-23T20:08:51.944499</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SYNTHETIC_ARTICLE_6</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>The Future of Semiconductor Manufacturing: Innovation at the Atomic Scale
-The semiconductor industry stands at the forefront of technological innovation, pushing the boundaries of what's possible in electronic device manufacturing. The relentless pursuit of Moore's Law has driven unprecedented advances in manufacturing processes, enabling the creation of increasingly powerful and efficient electronic devices. This journey of innovation continues to reshape the landscape of modern technology.
-The fundamental challenges of semiconductor manufacturing have grown exponentially as device dimensions approach atomic scales. The physics of semiconductor fabrication at these scales presents unique challenges that require revolutionary approaches to manufacturing. Engineers and scientists must contend with quantum effects and atomic-level precision in ways that were unimaginable just a few decades ago.
-In a groundbreaking achievement announced in March 2024, TSMC successfully demonstrated the world's first 1-nanometer process node, achieving a transistor density of 400 million transistors per square millimeter while maintaining a power efficiency of 0.2 watts per million transistors. This development marks a significant milestone in the industry's pursuit of continued scaling in semiconductor manufacturing.
-The evolution of lithography technology has been crucial to enabling continued advancement in semiconductor manufacturing. The industry's adoption of extreme ultraviolet (EUV) lithography represented a fundamental shift in how circuits are patterned onto silicon wafers. This technology continues to evolve, with researchers exploring new techniques for achieving even finer feature sizes and better pattern fidelity.
-Materials science plays an increasingly critical role in semiconductor manufacturing innovation. The introduction of new materials and atomic-layer deposition techniques has enabled continued improvements in device performance and efficiency. Researchers continue to explore novel materials and compositions that could enable the next generation of semiconductor devices.
-The economic implications of advanced semiconductor manufacturing are profound. The cost of building and equipping a leading-edge semiconductor fabrication facility has grown exponentially, leading to new models of collaboration and investment in the industry. This economic reality has reshaped the competitive landscape and driven new approaches to funding and operating semiconductor manufacturing facilities.
-Quality control and yield management have become increasingly sophisticated as manufacturing processes become more complex. Advanced inspection and metrology systems, powered by artificial intelligence and machine learning, enable the detection and correction of defects at scales that were previously impossible to monitor. These capabilities are crucial for maintaining economically viable production yields at advanced technology nodes.</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>processed</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>{'char_length': 2968, 'timestamp': '2025-02-23T20:08:51.944499'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-02-23T20:08:51.956139</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SYNTHETIC_ARTICLE_6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Quality control and yield management have become increasingly sophisticated as manufacturing processes become more complex. Advanced inspection and metrology systems, powered by artificial intelligence and machine learning, enable the detection and correction of defects at scales that were previously impossible to monitor. These capabilities are crucial for maintaining economically viable production yields at advanced technology nodes.
-The environmental impact of semiconductor manufacturing has become a critical consideration as the industry continues to grow. Water usage, energy consumption, and chemical waste management present significant challenges that must be addressed. The industry has responded with innovations in resource recovery and recycling, as well as the development of more environmentally sustainable manufacturing processes.
-Supply chain resilience has emerged as a crucial factor in semiconductor manufacturing strategy. The global nature of the semiconductor supply chain, combined with increasing geopolitical tensions and natural disasters, has highlighted the importance of developing more robust and diversified supply networks. This has led to new investments in manufacturing capacity across different regions and the development of more resilient supply chain models.
-The role of artificial intelligence in semiconductor manufacturing continues to expand. AI systems are being deployed throughout the manufacturing process, from design and simulation to process control and quality assurance. These systems enable more efficient operations and help maintain the precise control required for advanced semiconductor manufacturing.
-The development of new packaging technologies has become as crucial as advances in semiconductor manufacturing processes. Advanced packaging techniques, including 2.5D and 3D integration, enable new approaches to system design and performance optimization. These innovations are crucial for continuing to advance overall system capabilities as traditional scaling becomes more challenging.
-The workforce requirements for semiconductor manufacturing have evolved significantly. The increasing complexity of manufacturing processes requires a highly skilled workforce with expertise in multiple disciplines. Industry leaders are investing in education and training programs to develop the talent needed to operate and advance these sophisticated manufacturing operations.
-Research and development in semiconductor manufacturing continues to push the boundaries of what's possible. Scientists and engineers are exploring new approaches to computation and memory, including novel device architectures and materials. These research efforts could lead to revolutionary changes in how semiconductor devices are manufactured and used.
-The standardization of advanced manufacturing processes presents ongoing challenges. As new technologies and processes are developed, the industry must work to establish standards that enable interoperability and efficiency while maintaining the flexibility needed for innovation. This balance between standardization and innovation remains a crucial consideration in the industry's development.</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>{'char_length': 3195, 'timestamp': '2025-02-23T20:08:51.956139'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-02-23T20:08:51.967912</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SYNTHETIC_ARTICLE_6</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The standardization of advanced manufacturing processes presents ongoing challenges. As new technologies and processes are developed, the industry must work to establish standards that enable interoperability and efficiency while maintaining the flexibility needed for innovation. This balance between standardization and innovation remains a crucial consideration in the industry's development.
-Looking toward the future, the semiconductor manufacturing industry faces both challenges and opportunities. The continued pursuit of Moore's Law will require new approaches to device scaling and manufacturing. The industry must balance the technical challenges of advancing semiconductor technology with economic and environmental considerations.
-The impact of semiconductor manufacturing advances extends far beyond the technology sector. These innovations enable advances in fields ranging from healthcare to renewable energy, making semiconductor manufacturing a crucial driver of broader technological and social progress. The industry's ability to continue pushing the boundaries of what's possible will play a vital role in shaping the future of technology and society.</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>{'char_length': 1174, 'timestamp': '2025-02-23T20:08:51.967912'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-02-24T00:08:55.555905</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nicholas_Pate_Resume.pdf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NICHOLAS PATE 
-329 E 63rd, #3A | New York, NY 10065 
-Tel: 512-966-4317 | E-mail: nicholas.pate1320@gmail.com 
-EXPERIENCE 
-Dell Technologies 
-Corporate Strategy Consultant 
-New York, NY 
-Nov 2021 – Present 
-• Led AI strategy projects, scoping and structuring complex questions and executing hypotheses-driven frameworks 
-• Synthesized insights into internal and external collateral; delivered strategic recommendations to senior leadership 
-• Conducted primary market research and developed data-driven insights to inform AI growth strategies 
-• Developed and led AI training initiatives, including upskilling and thought leadership for Corporate Strategy team 
-• Delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives to aid in annual planning 
-• Built relationships and collaborated effectively with colleagues at all levels to create and drive adoption of AI strategies 
-L.E.K. Consulting 
-Consultant 
-Summer Consultant 
-New York, NY 
-Jan 2021 – Oct 2021  
-Summer 2019 
-• Led and managed teams of 2-3 associates in the execution of commercial and vendor due diligence projects, providing 
-valuable insights for buy-side and sell-side transactions 
-• Developed and implemented hypothesis-led frameworks to provide comprehensive market dynamics insights, 
-including growth drivers, competitive landscapes, customer segmentation, unmet needs, and key purchasing criteria 
-• Conducted primary market research through the development of consumer surveys and interview guides, providing 
-data-driven insights to inform growth strategies 
-• Developed market size models to determine current market size and forecasted growth, aiding in strategic decision-
-making for clients across various industries 
-Grant Thornton LLP 
-Senior Associate Consultant – Strategy and Performance Improvement  
-Associate Consultant – Business Consulting (Dallas, TX) 
-New York, NY 
-2016 - 2018 
-2014-2016 
-• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
-analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
-• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
-opportunities for clients</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>processed</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>{'char_length': 2286, 'timestamp': '2025-02-24T00:08:55.555905'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-02-24T00:09:25.024404</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nicholas_Pate_Resume.pdf</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>New York, NY 
-2016 - 2018 
-2014-2016 
-• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
-analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
-• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
-opportunities for clients 
-• Developed and presented quantitative business cases, influencing key decision-making processes for clients 
-EDUCATION 
-NEW YORK UNIVERSITY, Leonard N. Stern School of Business 
-Master of Business Administration 
-Specializations in Strategy, Business Analytics, and Management 
-New York, NY 
-May 2020 
-• Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club 
-• Member - Stern Technology Association; Management Consulting Association 
-• Teaching Fellow - Digital Strategy; Programming in Python 
-SOUTHWESTERN UNIVERSITY 
-Bachelor of Arts in Business and Economics 
-Georgetown, TX 
- May 2013 
-• Dean’s List 
-ADDITIONAL INFORMATION 
-• Skills: Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, 
-Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management 
-• Certifications: OpenAI API Bootcamp - Udemy; Intermediate Python for Data Science – DataCamp 
-• Volunteering: Mentor for 15+ middle school, high school, and first-generation college students over 5 different 
-organizations since 2014, providing educational, professional, and personal guidance 
-• Interests: Competitive bowler with ten 300 games, avid musician (singing, piano, and guitar), and coffee roaster</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>processed</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>{'char_length': 1729, 'timestamp': '2025-02-24T00:09:25.024404'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-02-24T13:46:20.032800</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nicholas_Pate_Resume.docx</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NICHOLAS PATE
-329 E 63rd, #3A | New York, NY 10065
-Tel: 512-966-4317 | E-mail: nicholas.pate1320@gmail.com</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>{'char_length': 106, 'timestamp': '2025-02-24T13:46:20.032800'}</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>